--- a/models/matouqin/Data/all_params.xlsx
+++ b/models/matouqin/Data/all_params.xlsx
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +640,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0.8</v>
@@ -655,7 +655,7 @@
         <v>0.0024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0024</v>
+        <v>0.004</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +740,10 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005</v>
+        <v>0.0005</v>
       </c>
       <c r="G2" t="n">
         <v>19.97777777777777</v>
@@ -752,7 +752,7 @@
         <v>0.1295045749654566</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9065320247581963</v>
+        <v>0.009065320247581964</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005</v>
+        <v>0.0005</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>0.001</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -889,7 +889,53 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4012129359534564</v>
+        <v>0.004012129359534564</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tank2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>500</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.08024258719069129</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.002407277615720738</v>
       </c>
     </row>
   </sheetData>
@@ -979,10 +1025,10 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08</v>
+        <v>0.008</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005</v>
+        <v>0.0005</v>
       </c>
       <c r="G2" t="n">
         <v>0.03954194444444445</v>
@@ -994,7 +1040,7 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006419406975255303</v>
+        <v>0.0006419406975255303</v>
       </c>
     </row>
   </sheetData>

--- a/models/matouqin/Data/all_params.xlsx
+++ b/models/matouqin/Data/all_params.xlsx
@@ -9,11 +9,12 @@
   <sheets>
     <sheet name="cf" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="generation" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="time" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="price" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="electrolyzer" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="hytank" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fuel-cell" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="inflow" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="time" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="price" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="electrolyzer" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="hytank" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fuel-cell" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +489,1887 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.232</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.615</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.513</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.488</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.306</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.162</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.212</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.058</v>
       </c>
     </row>
   </sheetData>
@@ -534,10 +2415,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -546,6 +2427,1950 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B241"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.249999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>17.35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7.199999999999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5.899999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.550000000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17.85</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19.85</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.950000000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.449999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.899999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8.550000000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9.049999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.600000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9.950000000000001</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9.049999999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>26.45</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8.200000000000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16.85</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>7.199999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>7.249999999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6.850000000000001</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8.450000000000001</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.899999999999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>19.35</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.600000000000001</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5.800000000000001</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6.550000000000001</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>7.399999999999999</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7.449999999999999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -584,7 +4409,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +4417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -640,7 +4465,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0.8</v>
@@ -655,7 +4480,7 @@
         <v>0.0024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004</v>
+        <v>0.0024</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +4488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -734,25 +4559,25 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
         <v>19.97777777777777</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1295045749654566</v>
+        <v>0.08024258719069129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009065320247581964</v>
+        <v>0.001538898932424216</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +4585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -797,7 +4622,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hmi</t>
+          <t>hini</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -862,7 +4687,7 @@
         <v>300</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
@@ -874,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.05</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0005</v>
       </c>
       <c r="K2" t="n">
         <v>0.001</v>
@@ -889,7 +4714,7 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004012129359534564</v>
+        <v>0.001099213523160155</v>
       </c>
     </row>
     <row r="3">
@@ -908,7 +4733,7 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
@@ -920,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005</v>
+        <v>0.05</v>
       </c>
       <c r="K3" t="n">
         <v>0.001</v>
@@ -935,7 +4760,7 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002407277615720738</v>
+        <v>0.0006595281138960927</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +4768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1025,22 +4850,22 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03954194444444445</v>
+        <v>0.0333</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02767936111111111</v>
+        <v>0.02331</v>
       </c>
       <c r="I2" t="n">
         <v>0.08024258719069129</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006419406975255303</v>
+        <v>0.001758741637056247</v>
       </c>
     </row>
   </sheetData>

--- a/models/matouqin/Data/all_params.xlsx
+++ b/models/matouqin/Data/all_params.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,582 +1794,6 @@
       </c>
       <c r="B169" t="n">
         <v>0.144</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.145</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.137</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.197</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.169</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0.135</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0.063</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0.162</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>0.295</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>0.344</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0.388</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0.387</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>0.343</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.274</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.212</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>0.081</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0.148</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>0.149</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>0.058</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +1856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3787,582 +3211,6 @@
       </c>
       <c r="B169" t="n">
         <v>7.199999999999999</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.5499999999999999</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.050000000000001</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.050000000000001</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>7.249999999999999</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>6.850000000000001</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>8.450000000000001</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.899999999999999</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>19.35</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>17.15</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.600000000000001</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>5.800000000000001</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>6.550000000000001</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>7.399999999999999</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>9.449999999999999</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>7.449999999999999</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +3224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4387,15 +3235,10 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hrs</t>
+          <t>ydis</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ydis</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>nHrs</t>
         </is>
@@ -4403,13 +3246,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C2" t="n">
-        <v>240</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +3334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4548,6 +3388,11 @@
           <t>sInv</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>OMC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4577,7 +3422,10 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001538898932424216</v>
+        <v>0.001077229252696952</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0009589041095890411</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4670,6 +3518,11 @@
           <t>sInv</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>OMC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4714,7 +3567,10 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001099213523160155</v>
+        <v>0.0007694494662121083</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0009589041095890411</v>
       </c>
     </row>
     <row r="3">
@@ -4760,7 +3616,10 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0006595281138960927</v>
+        <v>0.0004616696797272649</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0009589041095890411</v>
       </c>
     </row>
   </sheetData>
@@ -4774,7 +3633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4833,6 +3692,11 @@
           <t>sInv</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OMC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4841,7 +3705,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
         <v>20</v>
@@ -4850,7 +3714,7 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.05</v>
@@ -4865,7 +3729,10 @@
         <v>0.08024258719069129</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001758741637056247</v>
+        <v>0.0007694494662121083</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0009589041095890411</v>
       </c>
     </row>
   </sheetData>
